--- a/files/job_reg.xlsx
+++ b/files/job_reg.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">pembe</t>
+    <t xml:space="preserve">kırmızı</t>
   </si>
   <si>
     <t xml:space="preserve">sarı</t>
@@ -138,12 +138,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -167,144 +171,144 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="n">
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>1</v>
       </c>
     </row>

--- a/files/job_reg.xlsx
+++ b/files/job_reg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">jobs</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">yeşil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siyah</t>
   </si>
   <si>
     <t xml:space="preserve">kare</t>
@@ -171,7 +168,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -244,7 +241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -261,57 +258,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/files/job_reg.xlsx
+++ b/files/job_reg.xlsx
@@ -168,7 +168,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:E7"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -232,7 +232,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>

--- a/files/job_reg.xlsx
+++ b/files/job_reg.xlsx
@@ -165,15 +165,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -190,7 +190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -207,7 +207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -224,7 +224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -292,7 +292,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/files/job_reg.xlsx
+++ b/files/job_reg.xlsx
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -84,13 +84,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,16 +128,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -168,127 +153,127 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/files/job_reg.xlsx
+++ b/files/job_reg.xlsx
@@ -128,8 +128,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -153,127 +157,127 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="A1:E7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/files/job_reg.xlsx
+++ b/files/job_reg.xlsx
@@ -157,7 +157,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -272,13 +272,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/job_reg.xlsx
+++ b/files/job_reg.xlsx
@@ -37,22 +37,22 @@
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">kırmızı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yeşil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">üçgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daire</t>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circle</t>
   </si>
 </sst>
 </file>
@@ -128,12 +128,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -156,128 +152,128 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
